--- a/densities.xlsx
+++ b/densities.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Density </t>
   </si>
@@ -204,13 +204,22 @@
   </si>
   <si>
     <t>14-52</t>
+  </si>
+  <si>
+    <t>Citation Network</t>
+  </si>
+  <si>
+    <t>cit-HepPH</t>
+  </si>
+  <si>
+    <t>cit-HepTH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -233,6 +242,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -273,6 +288,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:H61"/>
+  <dimension ref="E5:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,330 +762,362 @@
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="4"/>
+      <c r="E22" s="7"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="3" t="s">
-        <v>21</v>
+      <c r="E23" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.2848</v>
+      </c>
+      <c r="H24">
+        <v>34546</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="H25">
+        <v>27770</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G28" s="5">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H24">
+      <c r="H28">
         <v>18772</v>
       </c>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="4" t="s">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G29" s="5">
         <v>0.52959999999999996</v>
       </c>
-      <c r="H25">
+      <c r="H29">
         <v>5242</v>
       </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0.61150000000000004</v>
-      </c>
-      <c r="H26">
-        <v>12008</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0.47139999999999999</v>
-      </c>
-      <c r="H27">
-        <v>9877</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="4"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E30" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G30" s="5">
-        <v>0.41980000000000001</v>
+        <v>0.61150000000000004</v>
       </c>
       <c r="H30">
-        <v>262111</v>
+        <v>12008</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.47139999999999999</v>
+      </c>
+      <c r="H31">
+        <v>9877</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="H34">
+        <v>262111</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G35" s="5">
         <v>0.4022</v>
       </c>
-      <c r="H31">
+      <c r="H35">
         <v>400727</v>
       </c>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0.41770000000000002</v>
-      </c>
-      <c r="H32">
-        <v>403394</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="4"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="4"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.41770000000000002</v>
+      </c>
+      <c r="H36">
+        <v>403394</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G40" s="5">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="H36">
+      <c r="H40">
         <v>10876</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="4" t="s">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G41" s="5">
         <v>1.09E-2</v>
       </c>
-      <c r="H37">
+      <c r="H41">
         <v>6301</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="7" t="s">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G42" s="5">
         <v>6.3E-3</v>
       </c>
-      <c r="H38">
+      <c r="H42">
         <v>36682</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="7" t="s">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E43" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G43" s="5">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="H39">
+      <c r="H43">
         <v>62586</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E40" s="4"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="3" t="s">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="4" t="s">
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G46" s="5">
         <v>0.25219999999999998</v>
       </c>
-      <c r="H42">
+      <c r="H46">
         <v>6474</v>
-      </c>
-    </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0.2082</v>
-      </c>
-      <c r="H43">
-        <v>26475</v>
-      </c>
-    </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44">
-        <v>11174</v>
-      </c>
-    </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E46" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G47" s="5">
-        <v>0.12790000000000001</v>
+        <v>0.2082</v>
       </c>
       <c r="H47">
-        <v>131828</v>
+        <v>26475</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48">
+        <v>11174</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E50" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="H51">
+        <v>131828</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G52" s="5">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="H48">
+      <c r="H52">
         <v>77350</v>
-      </c>
-    </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="5">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="H49">
-        <v>81867</v>
-      </c>
-    </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G50" s="5">
-        <v>5.8799999999999998E-2</v>
-      </c>
-      <c r="H50">
-        <v>82140</v>
-      </c>
-    </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E52" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" s="5">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="H53">
+        <v>81867</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="5">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="H54">
+        <v>82140</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E56" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E57" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="4" t="s">
+    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E58" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H54">
+      <c r="H58">
         <v>1899</v>
-      </c>
-    </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E55" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H55">
-        <v>5881</v>
-      </c>
-    </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E56" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H56">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E58" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E59" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" t="s">
-        <v>52</v>
-      </c>
-      <c r="H59" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="H59">
+        <v>5881</v>
       </c>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E62" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E64" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F64" t="s">
         <v>55</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H64" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E61" s="4" t="s">
+    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E65" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F65" t="s">
         <v>58</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H65" t="s">
         <v>59</v>
       </c>
     </row>
